--- a/入力.xlsx
+++ b/入力.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J0133\Desktop\FEM Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A527B6-F50A-4008-B564-E4674F0CDE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBABFB5-C2E1-4EE0-AAC2-0BA009D29DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>弾性係数</t>
   </si>
   <si>
-    <t>gk</t>
-  </si>
-  <si>
     <t>断面積 A (m2)</t>
   </si>
   <si>
@@ -136,13 +133,42 @@
   </si>
   <si>
     <t>節点</t>
+  </si>
+  <si>
+    <r>
+      <t>torsional stiffness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ｵｸｿ・"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>gk</t>
+    </r>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +310,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -728,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +775,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,16 +1477,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="19" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.75" customWidth="1"/>
+    <col min="27" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.375" customWidth="1"/>
+    <col min="30" max="30" width="6.75" customWidth="1"/>
+    <col min="31" max="31" width="2.625" customWidth="1"/>
+    <col min="32" max="33" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="35" max="36" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.125" customWidth="1"/>
+    <col min="38" max="39" width="5.75" customWidth="1"/>
+    <col min="40" max="42" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1523,7 +1583,7 @@
       </c>
       <c r="B3" s="1">
         <f>+COUNT(A6:A1048576)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1537,14 +1597,14 @@
       </c>
       <c r="L3" s="1">
         <f>+COUNT(K6:K1048576)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="V3" t="s">
         <v>11</v>
       </c>
       <c r="W3" s="1">
         <f>+COUNT(V6:V1048576)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="s">
         <v>6</v>
@@ -1558,7 +1618,7 @@
       </c>
       <c r="AM3" s="1">
         <f>+COUNT(AL6:AL1048576)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -1566,7 +1626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" ht="18.75">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1580,58 +1640,58 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>30</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
         <v>32</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>33</v>
       </c>
       <c r="AN5" t="s">
         <v>1</v>
@@ -1651,20 +1711,21 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>21000000</v>
+        <v>23500000</v>
       </c>
       <c r="F6">
-        <v>100000</v>
+        <f>+E6/(2*(1+0.16667))*23.307</f>
+        <v>234734115.04538554</v>
       </c>
       <c r="G6">
         <f>2*10</f>
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f>10*(2^3)/12</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f>10*(2^3)/12</f>
         <v>6.666666666666667</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s">
         <v>13</v>
@@ -1720,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="AD6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE6" t="s">
         <v>13</v>
@@ -1741,10 +1802,10 @@
         <v>15</v>
       </c>
       <c r="AL6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM6" t="s">
         <v>21</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>22</v>
       </c>
       <c r="AN6" t="s">
         <v>13</v>
@@ -1771,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>21000000</v>
+        <v>23500000</v>
       </c>
       <c r="F7">
         <v>100000</v>
@@ -1780,11 +1841,11 @@
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f>4*(2^3)/12</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f>2*(4^3)/12</f>
         <v>10.666666666666666</v>
       </c>
@@ -1821,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="W7" s="4">
-        <v>100000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="X7" s="4">
-        <v>100000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="Y7" s="4">
-        <v>100000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="Z7" s="4">
-        <v>100000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="AA7" s="4">
-        <v>100000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="AB7" s="4">
-        <v>0</v>
+        <v>1000000000000</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -1868,11 +1929,11 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D41" si="0">+D7+1</f>
+        <f t="shared" ref="D8:D21" si="0">+D7+1</f>
         <v>3</v>
       </c>
       <c r="E8">
-        <v>21000000</v>
+        <v>23500000</v>
       </c>
       <c r="F8">
         <v>100000</v>
@@ -1881,24 +1942,24 @@
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f>4*(2^3)/12</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>2*(4^3)/12</f>
         <v>10.666666666666666</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:L29" si="1">+K7+1</f>
+        <f>+K7+1</f>
         <v>3</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f>+L7+1</f>
         <v>4</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1921,27 +1982,12 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="X8" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>0</v>
-      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
       <c r="AL8">
         <f>+AL7+1</f>
         <v>2</v>
@@ -1963,10 +2009,10 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1974,6 +2020,38 @@
       <c r="D9">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="K9">
+        <f>+K8+1</f>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f>+L8+1</f>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -1981,6 +2059,642 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
+      <c r="AL9">
+        <f>+AL8+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <f>+AM8+1</f>
+        <v>4</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f>+AO8</f>
+        <v>-20</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f>+K9+1</f>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f>+L9+1</f>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f>+AL9+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM10">
+        <f>+AM9+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f>+AO9</f>
+        <v>-20</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f>+K10+1</f>
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <f>+L10+1</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <f>+AL10+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <f>+AM10+1</f>
+        <v>6</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>+AO10</f>
+        <v>-20</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f>+K11+1</f>
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <f>+L11+1</f>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f>+AL11+1</f>
+        <v>6</v>
+      </c>
+      <c r="AM12">
+        <f>+AM11+1</f>
+        <v>7</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f>+AO11</f>
+        <v>-20</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f>+K12+1</f>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f>+L12+1</f>
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <f>+AL12+1</f>
+        <v>7</v>
+      </c>
+      <c r="AM13">
+        <f>+AM12+1</f>
+        <v>8</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f>+AO12</f>
+        <v>-20</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f>+K13+1</f>
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <f>+L13+1</f>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f>+AL13+1</f>
+        <v>8</v>
+      </c>
+      <c r="AM14">
+        <f>+AM13+1</f>
+        <v>9</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>+AO13</f>
+        <v>-20</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f>+K14+1</f>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f>+L14+1</f>
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f>+AL14+1</f>
+        <v>9</v>
+      </c>
+      <c r="AM15">
+        <f>+AM14+1</f>
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f>+AO14</f>
+        <v>-20</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f>+L15+1</f>
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <f>+AL15+1</f>
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <f>+AM15+1</f>
+        <v>11</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f>+AO15</f>
+        <v>-20</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <f>+A10</f>
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>+B10-5</f>
+        <v>-5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <f>+L16</f>
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <f>+L16+1</f>
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <f t="shared" ref="A18:A21" si="1">+A11</f>
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <f>+B17-5</f>
+        <v>-10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K20" si="2">+L17</f>
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f>+L17+1</f>
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B20" si="3">+B18-5</f>
+        <v>-15</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <f>+L18+1</f>
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/入力.xlsx
+++ b/入力.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J0133\Desktop\FEM Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBABFB5-C2E1-4EE0-AAC2-0BA009D29DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012DF8E-D665-47F1-BCFE-A1CB0BE5E020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1179,6 +1180,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>420116</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>39086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCCF2BA-624A-4997-98DD-D8BFF06FEDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="7278116" cy="7068536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1480,7 +1536,7 @@
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1604,7 +1660,7 @@
       </c>
       <c r="W3" s="1">
         <f>+COUNT(V6:V1048576)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="s">
         <v>6</v>
@@ -1885,22 +1941,22 @@
         <v>15</v>
       </c>
       <c r="W7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="X7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="Y7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="Z7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="AA7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="AB7" s="4">
-        <v>1000000000000</v>
+        <v>100000000</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -1982,12 +2038,27 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="X8" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>100000000</v>
+      </c>
       <c r="AL8">
         <f>+AL7+1</f>
         <v>2</v>
@@ -2701,4 +2772,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ED954A-EDC4-4941-93FC-48990F5E724B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>